--- a/reports/prune_experiment.xlsx
+++ b/reports/prune_experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junkim/Desktop/math3856/ml_assignment_2/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DFC767-46FF-FF44-891D-0E70A069C595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7634249D-A532-F440-A190-1849A917C853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,10 +415,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
@@ -458,28 +461,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.64899730619574991</v>
+        <v>0.63588147261299011</v>
       </c>
       <c r="C2">
-        <v>1.2322807287291409E-2</v>
+        <v>6.8416735741695734E-3</v>
       </c>
       <c r="D2">
-        <v>0.62081339712918648</v>
+        <v>0.61947368421052629</v>
       </c>
       <c r="E2">
-        <v>9.125469436727587E-3</v>
+        <v>1.2471528436504771E-2</v>
       </c>
       <c r="F2">
-        <v>0.84586562648263663</v>
+        <v>0.83826734237414835</v>
       </c>
       <c r="G2">
-        <v>1.4669224593914411E-2</v>
+        <v>4.2804199902125931E-3</v>
       </c>
       <c r="H2">
-        <v>0.82027344497219656</v>
+        <v>0.81869512565102454</v>
       </c>
       <c r="I2">
-        <v>9.466870966117551E-3</v>
+        <v>1.00203550498858E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -487,28 +490,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.64498653097874892</v>
+        <v>0.64105357677342112</v>
       </c>
       <c r="C3">
-        <v>9.9328613250440016E-3</v>
+        <v>7.1521215262858413E-3</v>
       </c>
       <c r="D3">
-        <v>0.62452153110047859</v>
+        <v>0.62296650717703339</v>
       </c>
       <c r="E3">
-        <v>1.714703635470689E-2</v>
+        <v>1.301356245833411E-2</v>
       </c>
       <c r="F3">
-        <v>0.83264018023205888</v>
+        <v>0.84452585188859652</v>
       </c>
       <c r="G3">
-        <v>1.0484883472116671E-2</v>
+        <v>3.809127657579011E-3</v>
       </c>
       <c r="H3">
-        <v>0.81662467191293564</v>
+        <v>0.82350820236347189</v>
       </c>
       <c r="I3">
-        <v>1.359335472090779E-2</v>
+        <v>1.0585909622210621E-2</v>
       </c>
     </row>
   </sheetData>
